--- a/trips.xlsx
+++ b/trips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdebruynkops/Desktop/Trip Placement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdebruynkops/Desktop/trip-placement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FDEE8-3529-D54D-8BEB-0E5980DD98DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED66B81-E905-2F4F-A5C2-2F41A2F75584}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="1120" windowWidth="27640" windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="trips" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Trip</t>
   </si>
@@ -113,12 +113,15 @@
   </si>
   <si>
     <t>Whitewater Kayaking</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -952,141 +955,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1">
+        <f>SUM(B2:B30)</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +1115,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +1123,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1131,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1139,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1155,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1171,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1187,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1195,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">

--- a/trips.xlsx
+++ b/trips.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamdebruynkops/Desktop/trip-placement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED66B81-E905-2F4F-A5C2-2F41A2F75584}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BCC128-7A1F-5A43-9BDD-3778DFC38098}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="1120" windowWidth="27640" windowHeight="15760"/>
+    <workbookView xWindow="860" yWindow="940" windowWidth="27640" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -28,6 +28,9 @@
     <t>Capacity</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Aroostook County: Houlton Community</t>
   </si>
   <si>
@@ -113,15 +116,12 @@
   </si>
   <si>
     <t>Whitewater Kayaking</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -955,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,16 +975,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <f>SUM(B2:B30)</f>
-        <v>494</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1000,15 +1000,15 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>48</v>
@@ -1016,15 +1016,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -1056,15 +1056,15 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>30</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>30</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>10</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>20</v>
